--- a/TouchGFX/assets/texts/texts.xlsx
+++ b/TouchGFX/assets/texts/texts.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23102" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23510" uniqueCount="223">
   <si>
     <t xml:space="preserve">Font</t>
   </si>
@@ -1870,7 +1870,7 @@
         <v>45</v>
       </c>
       <c r="I4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J4" t="s">
         <v>73</v>

--- a/TouchGFX/assets/texts/texts.xlsx
+++ b/TouchGFX/assets/texts/texts.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23510" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23918" uniqueCount="225">
   <si>
     <t xml:space="preserve">Font</t>
   </si>
@@ -684,6 +684,12 @@
   </si>
   <si>
     <t xml:space="preserve">MODE_SOIL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRECITEST     FW412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRECITEST     FW403</t>
   </si>
 </sst>
 </file>
@@ -2993,7 +2999,7 @@
         <v>44</v>
       </c>
       <c r="F49" t="s">
-        <v>197</v>
+        <v>223</v>
       </c>
       <c r="G49" t="s">
         <v>49</v>
@@ -3013,7 +3019,7 @@
         <v>44</v>
       </c>
       <c r="F50" t="s">
-        <v>199</v>
+        <v>224</v>
       </c>
       <c r="G50" t="s">
         <v>49</v>

--- a/TouchGFX/assets/texts/texts.xlsx
+++ b/TouchGFX/assets/texts/texts.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23918" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24326" uniqueCount="226">
   <si>
     <t xml:space="preserve">Font</t>
   </si>
@@ -690,6 +690,9 @@
   </si>
   <si>
     <t xml:space="preserve">PRECITEST     FW403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRECITEST     PT-012</t>
   </si>
 </sst>
 </file>
@@ -2999,7 +3002,7 @@
         <v>44</v>
       </c>
       <c r="F49" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="G49" t="s">
         <v>49</v>

--- a/TouchGFX/assets/texts/texts.xlsx
+++ b/TouchGFX/assets/texts/texts.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24326" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24734" uniqueCount="227">
   <si>
     <t xml:space="preserve">Font</t>
   </si>
@@ -693,6 +693,9 @@
   </si>
   <si>
     <t xml:space="preserve">PRECITEST     PT-012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">History</t>
   </si>
 </sst>
 </file>
@@ -2189,7 +2192,7 @@
         <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>54</v>
+        <v>226</v>
       </c>
     </row>
     <row r="5">

--- a/TouchGFX/assets/texts/texts.xlsx
+++ b/TouchGFX/assets/texts/texts.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24734" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26472" uniqueCount="239">
   <si>
     <t xml:space="preserve">Font</t>
   </si>
@@ -696,6 +696,42 @@
   </si>
   <si>
     <t xml:space="preserve">History</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Font_14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Font_18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Scroll To Adjust)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Y:</t>
   </si>
 </sst>
 </file>
@@ -2074,6 +2110,33 @@
       <c r="P8" s="10"/>
     </row>
     <row r="9" spans="2:16">
+      <c r="B9" t="s">
+        <v>230</v>
+      </c>
+      <c r="C9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9">
+        <v>18</v>
+      </c>
+      <c r="E9">
+        <v>4</v>
+      </c>
+      <c r="F9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" t="s">
+        <v>146</v>
+      </c>
+      <c r="H9" t="s">
+        <v>45</v>
+      </c>
+      <c r="I9" t="s">
+        <v>77</v>
+      </c>
+      <c r="J9" t="s">
+        <v>45</v>
+      </c>
       <c r="L9" s="11" t="s">
         <v>6</v>
       </c>
@@ -3219,7 +3282,91 @@
         <v>161</v>
       </c>
     </row>
-    <row r="61"/>
+    <row r="61">
+      <c r="B61" t="s">
+        <v>231</v>
+      </c>
+      <c r="C61" t="s">
+        <v>230</v>
+      </c>
+      <c r="D61" t="s">
+        <v>43</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="B62" t="s">
+        <v>233</v>
+      </c>
+      <c r="C62" t="s">
+        <v>156</v>
+      </c>
+      <c r="D62" t="s">
+        <v>43</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="B63" t="s">
+        <v>234</v>
+      </c>
+      <c r="C63" t="s">
+        <v>156</v>
+      </c>
+      <c r="D63" t="s">
+        <v>43</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="B64" t="s">
+        <v>235</v>
+      </c>
+      <c r="C64" t="s">
+        <v>156</v>
+      </c>
+      <c r="D64" t="s">
+        <v>43</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="B65" t="s">
+        <v>237</v>
+      </c>
+      <c r="C65" t="s">
+        <v>156</v>
+      </c>
+      <c r="D65" t="s">
+        <v>43</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>238</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:E2"/>
